--- a/resource/sudoku_base.xlsx
+++ b/resource/sudoku_base.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinyi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinyi\Documents\GitHub\Python-Sudoku\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F34788-3D4C-4CE1-B6EF-BF3D55053006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA911B35-B147-4624-BF80-F72A09C74D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11205" yWindow="2280" windowWidth="16230" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -446,263 +450,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3">
-        <v>9</v>
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10">
-        <v>2</v>
-      </c>
-      <c r="I2" s="6">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8">
-        <v>8</v>
-      </c>
-      <c r="C3" s="9">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7">
-        <v>4</v>
-      </c>
-      <c r="H3" s="8">
-        <v>5</v>
-      </c>
-      <c r="I3" s="9">
-        <v>6</v>
+      <c r="A3" s="4">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2">
-        <v>9</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7</v>
+      <c r="A4" s="7">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="10">
-        <v>3</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6</v>
-      </c>
-      <c r="I6" s="9">
-        <v>4</v>
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2">
-        <v>7</v>
-      </c>
-      <c r="I7" s="3">
-        <v>8</v>
+      <c r="A7" s="7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>6</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>9</v>
-      </c>
-      <c r="E8" s="10">
-        <v>7</v>
-      </c>
-      <c r="F8" s="6">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>2</v>
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7">
-        <v>6</v>
-      </c>
-      <c r="H9" s="8">
-        <v>4</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4</v>
+      </c>
+      <c r="I10" s="9">
         <v>5</v>
       </c>
     </row>
